--- a/app/src/main/res/raw/quiz_v1.xlsx
+++ b/app/src/main/res/raw/quiz_v1.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="quiz1" sheetId="1" r:id="rId1"/>
+    <sheet name="quiz2" sheetId="2" r:id="rId2"/>
+    <sheet name="quiz3" sheetId="3" r:id="rId3"/>
+    <sheet name="quiz4" sheetId="4" r:id="rId4"/>
+    <sheet name="quiz5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4280,7 +4280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
